--- a/docs/downloads/airports.xlsx
+++ b/docs/downloads/airports.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://servicenow-my.sharepoint.com/personal/shaowei_tan_servicenow_com/Documents/Labs/Travel Request/travelrequest/docs/downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="11_EDAFCF55BF64FF18F55B1250EA3161BAE3700E07" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6CAC9A05-F332-B746-A7ED-3A9EDA58C1B0}"/>
+  <xr:revisionPtr revIDLastSave="67" documentId="11_EDAFCF55BF64FF18F55B1250EA3161BAE3700E07" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5EB4DE24-1315-124C-8B14-031C073F661C}"/>
   <bookViews>
     <workbookView xWindow="920" yWindow="500" windowWidth="34920" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="731">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="531">
   <si>
     <t>code</t>
   </si>
@@ -142,12 +142,6 @@
     <t>AGP</t>
   </si>
   <si>
-    <t>36.6749</t>
-  </si>
-  <si>
-    <t>-4.49298</t>
-  </si>
-  <si>
     <t>Malaga Airport</t>
   </si>
   <si>
@@ -187,12 +181,6 @@
     <t>ANC</t>
   </si>
   <si>
-    <t>61.1767</t>
-  </si>
-  <si>
-    <t>-149.961</t>
-  </si>
-  <si>
     <t>Anchorage International Airport</t>
   </si>
   <si>
@@ -226,12 +214,6 @@
     <t>ATH</t>
   </si>
   <si>
-    <t>37.8937</t>
-  </si>
-  <si>
-    <t>23.7235</t>
-  </si>
-  <si>
     <t>Eleftherios Venizelos International Airport</t>
   </si>
   <si>
@@ -247,12 +229,6 @@
     <t>ATL</t>
   </si>
   <si>
-    <t>33.6558</t>
-  </si>
-  <si>
-    <t>-84.4333</t>
-  </si>
-  <si>
     <t>Hartsfield-Jackson Atlanta International Airport</t>
   </si>
   <si>
@@ -265,12 +241,6 @@
     <t>AUH</t>
   </si>
   <si>
-    <t>24.4331</t>
-  </si>
-  <si>
-    <t>54.6489</t>
-  </si>
-  <si>
     <t>Abu Dhabi International Airport</t>
   </si>
   <si>
@@ -295,12 +265,6 @@
     <t>BAH</t>
   </si>
   <si>
-    <t>26.2736</t>
-  </si>
-  <si>
-    <t>50.6234</t>
-  </si>
-  <si>
     <t>Bahrain International Airport</t>
   </si>
   <si>
@@ -322,12 +286,6 @@
     <t>BCN</t>
   </si>
   <si>
-    <t>41.3006</t>
-  </si>
-  <si>
-    <t>2.07976</t>
-  </si>
-  <si>
     <t>Barcelona International Airport</t>
   </si>
   <si>
@@ -343,12 +301,6 @@
     <t>BEY</t>
   </si>
   <si>
-    <t>33.825</t>
-  </si>
-  <si>
-    <t>35.4925</t>
-  </si>
-  <si>
     <t>Beirut International Airport</t>
   </si>
   <si>
@@ -382,12 +334,6 @@
     <t>BHX</t>
   </si>
   <si>
-    <t>52.4531</t>
-  </si>
-  <si>
-    <t>-1.73847</t>
-  </si>
-  <si>
     <t>EGBB</t>
   </si>
   <si>
@@ -397,12 +343,6 @@
     <t>BKK</t>
   </si>
   <si>
-    <t>13.9144</t>
-  </si>
-  <si>
-    <t>100.608</t>
-  </si>
-  <si>
     <t>Bangkok International Airport</t>
   </si>
   <si>
@@ -433,12 +373,6 @@
     <t>BNE</t>
   </si>
   <si>
-    <t>-27.3589</t>
-  </si>
-  <si>
-    <t>153.122</t>
-  </si>
-  <si>
     <t>Brisbane International Airport</t>
   </si>
   <si>
@@ -451,12 +385,6 @@
     <t>BOM</t>
   </si>
   <si>
-    <t>19.0932</t>
-  </si>
-  <si>
-    <t>72.8654</t>
-  </si>
-  <si>
     <t>Chhatrapati Shivaji International Airport</t>
   </si>
   <si>
@@ -472,12 +400,6 @@
     <t>BOS</t>
   </si>
   <si>
-    <t>42.3717</t>
-  </si>
-  <si>
-    <t>-71.0281</t>
-  </si>
-  <si>
     <t>Gen E L Logan International Airport</t>
   </si>
   <si>
@@ -493,12 +415,6 @@
     <t>BRU</t>
   </si>
   <si>
-    <t>50.899</t>
-  </si>
-  <si>
-    <t>4.4859</t>
-  </si>
-  <si>
     <t>Brussels Airport</t>
   </si>
   <si>
@@ -514,12 +430,6 @@
     <t>BUD</t>
   </si>
   <si>
-    <t>47.4453</t>
-  </si>
-  <si>
-    <t>19.2195</t>
-  </si>
-  <si>
     <t>Ferihegy Airport</t>
   </si>
   <si>
@@ -538,12 +448,6 @@
     <t>CAI</t>
   </si>
   <si>
-    <t>30.1206</t>
-  </si>
-  <si>
-    <t>31.4078</t>
-  </si>
-  <si>
     <t>Cairo International Airport</t>
   </si>
   <si>
@@ -559,12 +463,6 @@
     <t>CAN</t>
   </si>
   <si>
-    <t>23.3925</t>
-  </si>
-  <si>
-    <t>113.299</t>
-  </si>
-  <si>
     <t>Baiyun Airport</t>
   </si>
   <si>
@@ -589,12 +487,6 @@
     <t>CGK</t>
   </si>
   <si>
-    <t>-6.11964</t>
-  </si>
-  <si>
-    <t>106.656</t>
-  </si>
-  <si>
     <t>Jakarta International Airport</t>
   </si>
   <si>
@@ -610,12 +502,6 @@
     <t>CGN</t>
   </si>
   <si>
-    <t>50.8784</t>
-  </si>
-  <si>
-    <t>7.12293</t>
-  </si>
-  <si>
     <t>Cologne Bonn Airport</t>
   </si>
   <si>
@@ -637,12 +523,6 @@
     <t>CLE</t>
   </si>
   <si>
-    <t>41.4115</t>
-  </si>
-  <si>
-    <t>-81.8339</t>
-  </si>
-  <si>
     <t>Hopkins International Airport</t>
   </si>
   <si>
@@ -655,12 +535,6 @@
     <t>CPH</t>
   </si>
   <si>
-    <t>55.6205</t>
-  </si>
-  <si>
-    <t>12.6495</t>
-  </si>
-  <si>
     <t>Copenhagen Airport</t>
   </si>
   <si>
@@ -679,12 +553,6 @@
     <t>CUN</t>
   </si>
   <si>
-    <t>21.0406</t>
-  </si>
-  <si>
-    <t>-86.8744</t>
-  </si>
-  <si>
     <t>Cancun Airport</t>
   </si>
   <si>
@@ -718,12 +586,6 @@
     <t>DEL</t>
   </si>
   <si>
-    <t>28.5603</t>
-  </si>
-  <si>
-    <t>77.1027</t>
-  </si>
-  <si>
     <t>Indira Gandhi International Airport</t>
   </si>
   <si>
@@ -736,12 +598,6 @@
     <t>DEN</t>
   </si>
   <si>
-    <t>39.8396</t>
-  </si>
-  <si>
-    <t>-104.672</t>
-  </si>
-  <si>
     <t>Denver International Airport</t>
   </si>
   <si>
@@ -754,12 +610,6 @@
     <t>DFW</t>
   </si>
   <si>
-    <t>32.9222</t>
-  </si>
-  <si>
-    <t>-97.0409</t>
-  </si>
-  <si>
     <t>Fort Worth International Airport</t>
   </si>
   <si>
@@ -769,12 +619,6 @@
     <t>DME</t>
   </si>
   <si>
-    <t>55.4025</t>
-  </si>
-  <si>
-    <t>37.9136</t>
-  </si>
-  <si>
     <t>Domodedovo Airport</t>
   </si>
   <si>
@@ -787,12 +631,6 @@
     <t>DOH</t>
   </si>
   <si>
-    <t>25.2592</t>
-  </si>
-  <si>
-    <t>51.5658</t>
-  </si>
-  <si>
     <t>Doha International Airport</t>
   </si>
   <si>
@@ -808,12 +646,6 @@
     <t>DTW</t>
   </si>
   <si>
-    <t>42.2327</t>
-  </si>
-  <si>
-    <t>-83.3412</t>
-  </si>
-  <si>
     <t>Detroit Metropolitan Wayne County Airport</t>
   </si>
   <si>
@@ -826,12 +658,6 @@
     <t>DUB</t>
   </si>
   <si>
-    <t>53.4272</t>
-  </si>
-  <si>
-    <t>-6.24418</t>
-  </si>
-  <si>
     <t>Dublin Airport</t>
   </si>
   <si>
@@ -844,12 +670,6 @@
     <t>DUS</t>
   </si>
   <si>
-    <t>51.2794</t>
-  </si>
-  <si>
-    <t>6.76481</t>
-  </si>
-  <si>
     <t>Dusseldorf International Airport</t>
   </si>
   <si>
@@ -865,12 +685,6 @@
     <t>EDI</t>
   </si>
   <si>
-    <t>55.9486</t>
-  </si>
-  <si>
-    <t>-3.36431</t>
-  </si>
-  <si>
     <t>Edinburgh International Airport</t>
   </si>
   <si>
@@ -895,12 +709,6 @@
     <t>EWR</t>
   </si>
   <si>
-    <t>40.6924</t>
-  </si>
-  <si>
-    <t>-74.1843</t>
-  </si>
-  <si>
     <t>Newark International Airport</t>
   </si>
   <si>
@@ -916,12 +724,6 @@
     <t>FLL</t>
   </si>
   <si>
-    <t>26.0722</t>
-  </si>
-  <si>
-    <t>-80.1354</t>
-  </si>
-  <si>
     <t>Fort Lauderdale Hollywood International Airport</t>
   </si>
   <si>
@@ -937,12 +739,6 @@
     <t>GLA</t>
   </si>
   <si>
-    <t>55.8646</t>
-  </si>
-  <si>
-    <t>-4.43234</t>
-  </si>
-  <si>
     <t>Glasgow International Airport</t>
   </si>
   <si>
@@ -955,12 +751,6 @@
     <t>GOT</t>
   </si>
   <si>
-    <t>57.6693</t>
-  </si>
-  <si>
-    <t>12.2957</t>
-  </si>
-  <si>
     <t>Gothenburg Airport</t>
   </si>
   <si>
@@ -979,12 +769,6 @@
     <t>GVA</t>
   </si>
   <si>
-    <t>46.2329</t>
-  </si>
-  <si>
-    <t>6.10682</t>
-  </si>
-  <si>
     <t>Geneva Airport</t>
   </si>
   <si>
@@ -1000,12 +784,6 @@
     <t>HAJ</t>
   </si>
   <si>
-    <t>52.4586</t>
-  </si>
-  <si>
-    <t>9.69459</t>
-  </si>
-  <si>
     <t>Hannover International Airport</t>
   </si>
   <si>
@@ -1018,12 +796,6 @@
     <t>HAM</t>
   </si>
   <si>
-    <t>53.6321</t>
-  </si>
-  <si>
-    <t>10.0042</t>
-  </si>
-  <si>
     <t>Hamburg Airport</t>
   </si>
   <si>
@@ -1036,12 +808,6 @@
     <t>HEL</t>
   </si>
   <si>
-    <t>60.3243</t>
-  </si>
-  <si>
-    <t>24.9688</t>
-  </si>
-  <si>
     <t>Helsinki Vantaa Airport</t>
   </si>
   <si>
@@ -1057,12 +823,6 @@
     <t>HKG</t>
   </si>
   <si>
-    <t>22.3124</t>
-  </si>
-  <si>
-    <t>113.929</t>
-  </si>
-  <si>
     <t>Hong Kong International Airport</t>
   </si>
   <si>
@@ -1087,12 +847,6 @@
     <t>IAD</t>
   </si>
   <si>
-    <t>38.9556</t>
-  </si>
-  <si>
-    <t>-77.4484</t>
-  </si>
-  <si>
     <t>Dulles International Airport</t>
   </si>
   <si>
@@ -1102,12 +856,6 @@
     <t>IAH</t>
   </si>
   <si>
-    <t>29.9784</t>
-  </si>
-  <si>
-    <t>-95.3424</t>
-  </si>
-  <si>
     <t>George Bush Intercontinental Airport</t>
   </si>
   <si>
@@ -1120,12 +868,6 @@
     <t>ICN</t>
   </si>
   <si>
-    <t>37.4534</t>
-  </si>
-  <si>
-    <t>126.657</t>
-  </si>
-  <si>
     <t>New Incheon International Airport</t>
   </si>
   <si>
@@ -1144,12 +886,6 @@
     <t>IST</t>
   </si>
   <si>
-    <t>40.9857</t>
-  </si>
-  <si>
-    <t>28.8163</t>
-  </si>
-  <si>
     <t>Ataturk Hava Limani Airport</t>
   </si>
   <si>
@@ -1165,12 +901,6 @@
     <t>JED</t>
   </si>
   <si>
-    <t>21.706</t>
-  </si>
-  <si>
-    <t>39.1386</t>
-  </si>
-  <si>
     <t>King Abdul Aziz International Airport</t>
   </si>
   <si>
@@ -1186,12 +916,6 @@
     <t>JNB</t>
   </si>
   <si>
-    <t>-26.1219</t>
-  </si>
-  <si>
-    <t>28.2467</t>
-  </si>
-  <si>
     <t>OR Tambo International Airport</t>
   </si>
   <si>
@@ -1201,12 +925,6 @@
     <t>KBP</t>
   </si>
   <si>
-    <t>50.3405</t>
-  </si>
-  <si>
-    <t>30.9025</t>
-  </si>
-  <si>
     <t>Borispol Airport</t>
   </si>
   <si>
@@ -1219,12 +937,6 @@
     <t>KIX</t>
   </si>
   <si>
-    <t>34.4295</t>
-  </si>
-  <si>
-    <t>135.244</t>
-  </si>
-  <si>
     <t>Kansai International Airport</t>
   </si>
   <si>
@@ -1240,12 +952,6 @@
     <t>KUL</t>
   </si>
   <si>
-    <t>2.77859</t>
-  </si>
-  <si>
-    <t>101.689</t>
-  </si>
-  <si>
     <t>Kuala Lumpur International Airport</t>
   </si>
   <si>
@@ -1261,12 +967,6 @@
     <t>KWI</t>
   </si>
   <si>
-    <t>29.2442</t>
-  </si>
-  <si>
-    <t>47.9748</t>
-  </si>
-  <si>
     <t>Kuwait International Airport</t>
   </si>
   <si>
@@ -1285,12 +985,6 @@
     <t>LAS</t>
   </si>
   <si>
-    <t>36.0806</t>
-  </si>
-  <si>
-    <t>-115.143</t>
-  </si>
-  <si>
     <t>Mccarran International Airport</t>
   </si>
   <si>
@@ -1303,12 +997,6 @@
     <t>LAX</t>
   </si>
   <si>
-    <t>33.9456</t>
-  </si>
-  <si>
-    <t>-118.391</t>
-  </si>
-  <si>
     <t>Los Angeles International Airport</t>
   </si>
   <si>
@@ -1321,12 +1009,6 @@
     <t>LCA</t>
   </si>
   <si>
-    <t>34.8789</t>
-  </si>
-  <si>
-    <t>33.6303</t>
-  </si>
-  <si>
     <t>Larnaca Airport</t>
   </si>
   <si>
@@ -1342,12 +1024,6 @@
     <t>LED</t>
   </si>
   <si>
-    <t>59.9667</t>
-  </si>
-  <si>
-    <t>30.3</t>
-  </si>
-  <si>
     <t>Pulkuvo 2 Airport</t>
   </si>
   <si>
@@ -1363,12 +1039,6 @@
     <t>LIS</t>
   </si>
   <si>
-    <t>38.7701</t>
-  </si>
-  <si>
-    <t>-9.13775</t>
-  </si>
-  <si>
     <t>Lisbon Airport</t>
   </si>
   <si>
@@ -1381,12 +1051,6 @@
     <t>LYS</t>
   </si>
   <si>
-    <t>45.7198</t>
-  </si>
-  <si>
-    <t>5.08245</t>
-  </si>
-  <si>
     <t>Lyon Airport</t>
   </si>
   <si>
@@ -1399,12 +1063,6 @@
     <t>MAD</t>
   </si>
   <si>
-    <t>40.4684</t>
-  </si>
-  <si>
-    <t>-3.56769</t>
-  </si>
-  <si>
     <t>Barajas Airport</t>
   </si>
   <si>
@@ -1417,12 +1075,6 @@
     <t>MAN</t>
   </si>
   <si>
-    <t>53.365</t>
-  </si>
-  <si>
-    <t>-2.27089</t>
-  </si>
-  <si>
     <t>Manchester International Airport</t>
   </si>
   <si>
@@ -1435,12 +1087,6 @@
     <t>MCO</t>
   </si>
   <si>
-    <t>28.4418</t>
-  </si>
-  <si>
-    <t>-81.3115</t>
-  </si>
-  <si>
     <t>Orlando International Airport</t>
   </si>
   <si>
@@ -1456,12 +1102,6 @@
     <t>MEL</t>
   </si>
   <si>
-    <t>-37.6759</t>
-  </si>
-  <si>
-    <t>144.844</t>
-  </si>
-  <si>
     <t>Melbourne International Airport</t>
   </si>
   <si>
@@ -1474,12 +1114,6 @@
     <t>MIA</t>
   </si>
   <si>
-    <t>25.7953</t>
-  </si>
-  <si>
-    <t>-80.2727</t>
-  </si>
-  <si>
     <t>Miami International Airport</t>
   </si>
   <si>
@@ -1492,12 +1126,6 @@
     <t>MRS</t>
   </si>
   <si>
-    <t>43.4411</t>
-  </si>
-  <si>
-    <t>5.22087</t>
-  </si>
-  <si>
     <t>Marignane Airport</t>
   </si>
   <si>
@@ -1510,12 +1138,6 @@
     <t>MSY</t>
   </si>
   <si>
-    <t>29.983</t>
-  </si>
-  <si>
-    <t>-90.2569</t>
-  </si>
-  <si>
     <t>New Orleans International Airport</t>
   </si>
   <si>
@@ -1528,12 +1150,6 @@
     <t>MUC</t>
   </si>
   <si>
-    <t>48.354</t>
-  </si>
-  <si>
-    <t>11.7816</t>
-  </si>
-  <si>
     <t>Franz-Josef-Strauss Airport</t>
   </si>
   <si>
@@ -1546,12 +1162,6 @@
     <t>NAP</t>
   </si>
   <si>
-    <t>40.8837</t>
-  </si>
-  <si>
-    <t>14.2815</t>
-  </si>
-  <si>
     <t>Naples International Airport</t>
   </si>
   <si>
@@ -1564,12 +1174,6 @@
     <t>NCE</t>
   </si>
   <si>
-    <t>43.6638</t>
-  </si>
-  <si>
-    <t>7.21286</t>
-  </si>
-  <si>
     <t>Nice-Cote d'Azur Airport</t>
   </si>
   <si>
@@ -1582,12 +1186,6 @@
     <t>NRT</t>
   </si>
   <si>
-    <t>35.7491</t>
-  </si>
-  <si>
-    <t>140.389</t>
-  </si>
-  <si>
     <t>Narita International Airport</t>
   </si>
   <si>
@@ -1603,12 +1201,6 @@
     <t>ORD</t>
   </si>
   <si>
-    <t>41.9796</t>
-  </si>
-  <si>
-    <t>-87.8825</t>
-  </si>
-  <si>
     <t>Chicago O'Hare International Airport</t>
   </si>
   <si>
@@ -1618,12 +1210,6 @@
     <t>ORY</t>
   </si>
   <si>
-    <t>48.7261</t>
-  </si>
-  <si>
-    <t>2.36411</t>
-  </si>
-  <si>
     <t>Paris Orly Airport</t>
   </si>
   <si>
@@ -1636,12 +1222,6 @@
     <t>OSL</t>
   </si>
   <si>
-    <t>60.1947</t>
-  </si>
-  <si>
-    <t>11.1005</t>
-  </si>
-  <si>
     <t>Oslo Gardermoen Airport</t>
   </si>
   <si>
@@ -1657,12 +1237,6 @@
     <t>PDX</t>
   </si>
   <si>
-    <t>45.5867</t>
-  </si>
-  <si>
-    <t>-122.587</t>
-  </si>
-  <si>
     <t>Portland International Airport</t>
   </si>
   <si>
@@ -1675,12 +1249,6 @@
     <t>PEK</t>
   </si>
   <si>
-    <t>40.0724</t>
-  </si>
-  <si>
-    <t>116.583</t>
-  </si>
-  <si>
     <t>Beijing Capital Airport</t>
   </si>
   <si>
@@ -1696,12 +1264,6 @@
     <t>PHL</t>
   </si>
   <si>
-    <t>39.8768</t>
-  </si>
-  <si>
-    <t>-75.2419</t>
-  </si>
-  <si>
     <t>Philadelphia International Airport</t>
   </si>
   <si>
@@ -1714,12 +1276,6 @@
     <t>PHX</t>
   </si>
   <si>
-    <t>33.4376</t>
-  </si>
-  <si>
-    <t>-112.03</t>
-  </si>
-  <si>
     <t>Sky Harbor International Airport</t>
   </si>
   <si>
@@ -1729,12 +1285,6 @@
     <t>PIT</t>
   </si>
   <si>
-    <t>40.4914</t>
-  </si>
-  <si>
-    <t>-80.2328</t>
-  </si>
-  <si>
     <t>Pittsburgh International Airport</t>
   </si>
   <si>
@@ -1747,12 +1297,6 @@
     <t>PMI</t>
   </si>
   <si>
-    <t>39.5495</t>
-  </si>
-  <si>
-    <t>2.73188</t>
-  </si>
-  <si>
     <t>Palma de Mallorca Airport</t>
   </si>
   <si>
@@ -1765,12 +1309,6 @@
     <t>PRG</t>
   </si>
   <si>
-    <t>50.1079</t>
-  </si>
-  <si>
-    <t>14.2675</t>
-  </si>
-  <si>
     <t>Prague Ruzyne Airport</t>
   </si>
   <si>
@@ -1786,12 +1324,6 @@
     <t>PVG</t>
   </si>
   <si>
-    <t>31.1156</t>
-  </si>
-  <si>
-    <t>121.803</t>
-  </si>
-  <si>
     <t>Pudong International Airport</t>
   </si>
   <si>
@@ -1807,12 +1339,6 @@
     <t>RDU</t>
   </si>
   <si>
-    <t>35.8729</t>
-  </si>
-  <si>
-    <t>-78.7923</t>
-  </si>
-  <si>
     <t>Durham International Airport</t>
   </si>
   <si>
@@ -1828,12 +1354,6 @@
     <t>SAN</t>
   </si>
   <si>
-    <t>32.7299</t>
-  </si>
-  <si>
-    <t>-117.195</t>
-  </si>
-  <si>
     <t>San Diego International Airport</t>
   </si>
   <si>
@@ -1846,12 +1366,6 @@
     <t>SEA</t>
   </si>
   <si>
-    <t>47.4405</t>
-  </si>
-  <si>
-    <t>-122.296</t>
-  </si>
-  <si>
     <t>Tacoma International Airport</t>
   </si>
   <si>
@@ -1861,12 +1375,6 @@
     <t>SFO</t>
   </si>
   <si>
-    <t>37.6148</t>
-  </si>
-  <si>
-    <t>-122.392</t>
-  </si>
-  <si>
     <t>San Francisco International Airport</t>
   </si>
   <si>
@@ -1879,12 +1387,6 @@
     <t>SGN</t>
   </si>
   <si>
-    <t>10.8191</t>
-  </si>
-  <si>
-    <t>106.658</t>
-  </si>
-  <si>
     <t>Tan Son Nhut Airport</t>
   </si>
   <si>
@@ -1900,12 +1402,6 @@
     <t>SIN</t>
   </si>
   <si>
-    <t>1.3578</t>
-  </si>
-  <si>
-    <t>103.991</t>
-  </si>
-  <si>
     <t>Singapore Changi Airport</t>
   </si>
   <si>
@@ -1921,12 +1417,6 @@
     <t>STL</t>
   </si>
   <si>
-    <t>38.7414</t>
-  </si>
-  <si>
-    <t>-90.3647</t>
-  </si>
-  <si>
     <t>Lambert St Louis International Airport</t>
   </si>
   <si>
@@ -1939,12 +1429,6 @@
     <t>STR</t>
   </si>
   <si>
-    <t>48.6895</t>
-  </si>
-  <si>
-    <t>9.19298</t>
-  </si>
-  <si>
     <t>Stuttgart Airport</t>
   </si>
   <si>
@@ -1957,12 +1441,6 @@
     <t>SVO</t>
   </si>
   <si>
-    <t>55.9621</t>
-  </si>
-  <si>
-    <t>37.4189</t>
-  </si>
-  <si>
     <t>Sheremtyevo Airport</t>
   </si>
   <si>
@@ -1975,12 +1453,6 @@
     <t>SYD</t>
   </si>
   <si>
-    <t>-33.9344</t>
-  </si>
-  <si>
-    <t>151.168</t>
-  </si>
-  <si>
     <t>Kingsford Smith Airport</t>
   </si>
   <si>
@@ -1999,12 +1471,6 @@
     <t>TLS</t>
   </si>
   <si>
-    <t>43.6294</t>
-  </si>
-  <si>
-    <t>1.3747</t>
-  </si>
-  <si>
     <t>Blagnac Airport</t>
   </si>
   <si>
@@ -2017,12 +1483,6 @@
     <t>TLV</t>
   </si>
   <si>
-    <t>32.0117</t>
-  </si>
-  <si>
-    <t>34.8861</t>
-  </si>
-  <si>
     <t>Ben Gurion Airport</t>
   </si>
   <si>
@@ -2038,12 +1498,6 @@
     <t>TPA</t>
   </si>
   <si>
-    <t>27.9744</t>
-  </si>
-  <si>
-    <t>-82.5356</t>
-  </si>
-  <si>
     <t>Tampa International Airport</t>
   </si>
   <si>
@@ -2056,12 +1510,6 @@
     <t>TPE</t>
   </si>
   <si>
-    <t>25.081</t>
-  </si>
-  <si>
-    <t>121.237</t>
-  </si>
-  <si>
     <t>Taiwan Taoyuan International Airport</t>
   </si>
   <si>
@@ -2074,12 +1522,6 @@
     <t>TXL</t>
   </si>
   <si>
-    <t>52.5548</t>
-  </si>
-  <si>
-    <t>13.289</t>
-  </si>
-  <si>
     <t>Berlin-Tegel International Airport</t>
   </si>
   <si>
@@ -2089,12 +1531,6 @@
     <t>VCE</t>
   </si>
   <si>
-    <t>45.505</t>
-  </si>
-  <si>
-    <t>12.3433</t>
-  </si>
-  <si>
     <t>Marco Polo International Airport</t>
   </si>
   <si>
@@ -2107,12 +1543,6 @@
     <t>VIE</t>
   </si>
   <si>
-    <t>48.1036</t>
-  </si>
-  <si>
-    <t>16.5804</t>
-  </si>
-  <si>
     <t>Vienna Schwechat International Airport</t>
   </si>
   <si>
@@ -2128,12 +1558,6 @@
     <t>WAW</t>
   </si>
   <si>
-    <t>52.17</t>
-  </si>
-  <si>
-    <t>20.9725</t>
-  </si>
-  <si>
     <t>Okecie International Airport</t>
   </si>
   <si>
@@ -2152,12 +1576,6 @@
     <t>YUL</t>
   </si>
   <si>
-    <t>45.4562</t>
-  </si>
-  <si>
-    <t>-73.7473</t>
-  </si>
-  <si>
     <t>Aéroport International Pierre-Elliott-Trudeau d</t>
   </si>
   <si>
@@ -2167,12 +1585,6 @@
     <t>YVR</t>
   </si>
   <si>
-    <t>49.1931</t>
-  </si>
-  <si>
-    <t>-123.172</t>
-  </si>
-  <si>
     <t>Vancouver International Airport</t>
   </si>
   <si>
@@ -2182,12 +1594,6 @@
     <t>YYZ</t>
   </si>
   <si>
-    <t>43.685</t>
-  </si>
-  <si>
-    <t>-79.6142</t>
-  </si>
-  <si>
     <t>Toronto Lester B Pearson International Airport</t>
   </si>
   <si>
@@ -2198,12 +1604,6 @@
   </si>
   <si>
     <t>ZRH</t>
-  </si>
-  <si>
-    <t>47.454</t>
-  </si>
-  <si>
-    <t>8.56137</t>
   </si>
   <si>
     <t>Zurich International Airport</t>
@@ -2595,7 +1995,7 @@
   <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2628,19 +2028,13 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>425</v>
-      </c>
-      <c r="B2" t="s">
-        <v>426</v>
-      </c>
-      <c r="C2" t="s">
-        <v>427</v>
+        <v>323</v>
       </c>
       <c r="D2" t="s">
-        <v>428</v>
+        <v>324</v>
       </c>
       <c r="E2" t="s">
-        <v>429</v>
+        <v>325</v>
       </c>
       <c r="F2" t="s">
         <v>31</v>
@@ -2649,388 +2043,298 @@
         <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>430</v>
+        <v>326</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C3" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="D3" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="E3" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="F3" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="G3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H3" t="s">
-        <v>161</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>693</v>
-      </c>
-      <c r="B4" t="s">
-        <v>694</v>
-      </c>
-      <c r="C4" t="s">
-        <v>695</v>
+        <v>505</v>
       </c>
       <c r="D4" t="s">
-        <v>696</v>
+        <v>506</v>
       </c>
       <c r="E4" t="s">
-        <v>697</v>
+        <v>507</v>
       </c>
       <c r="F4" t="s">
-        <v>698</v>
+        <v>508</v>
       </c>
       <c r="G4" t="s">
-        <v>316</v>
+        <v>246</v>
       </c>
       <c r="H4" t="s">
-        <v>699</v>
+        <v>509</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>500</v>
-      </c>
-      <c r="B5" t="s">
-        <v>501</v>
-      </c>
-      <c r="C5" t="s">
-        <v>502</v>
+        <v>374</v>
       </c>
       <c r="D5" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="E5" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="F5" t="s">
-        <v>302</v>
+        <v>236</v>
       </c>
       <c r="G5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H5" t="s">
-        <v>505</v>
+        <v>377</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>457</v>
-      </c>
-      <c r="B6" t="s">
-        <v>458</v>
-      </c>
-      <c r="C6" t="s">
-        <v>459</v>
+        <v>345</v>
       </c>
       <c r="D6" t="s">
-        <v>460</v>
+        <v>346</v>
       </c>
       <c r="E6" t="s">
-        <v>461</v>
+        <v>347</v>
       </c>
       <c r="F6" t="s">
-        <v>461</v>
+        <v>347</v>
       </c>
       <c r="G6" t="s">
         <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>462</v>
+        <v>348</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>482</v>
-      </c>
-      <c r="B7" t="s">
-        <v>483</v>
-      </c>
-      <c r="C7" t="s">
-        <v>484</v>
+        <v>362</v>
       </c>
       <c r="D7" t="s">
-        <v>485</v>
+        <v>363</v>
       </c>
       <c r="E7" t="s">
-        <v>486</v>
+        <v>364</v>
       </c>
       <c r="F7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G7" t="s">
         <v>17</v>
       </c>
       <c r="H7" t="s">
-        <v>487</v>
+        <v>365</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>98</v>
-      </c>
-      <c r="B8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C8" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D8" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="E8" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="F8" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="G8" t="s">
         <v>15</v>
       </c>
       <c r="H8" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>343</v>
-      </c>
-      <c r="B9" t="s">
-        <v>344</v>
-      </c>
-      <c r="C9" t="s">
-        <v>345</v>
+        <v>265</v>
       </c>
       <c r="D9" t="s">
-        <v>346</v>
+        <v>266</v>
       </c>
       <c r="E9" t="s">
-        <v>347</v>
+        <v>267</v>
       </c>
       <c r="F9" t="s">
-        <v>348</v>
+        <v>268</v>
       </c>
       <c r="G9" t="s">
-        <v>347</v>
+        <v>267</v>
       </c>
       <c r="H9" t="s">
-        <v>349</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>525</v>
-      </c>
-      <c r="B10" t="s">
-        <v>526</v>
-      </c>
-      <c r="C10" t="s">
-        <v>527</v>
+        <v>391</v>
       </c>
       <c r="D10" t="s">
-        <v>528</v>
+        <v>392</v>
       </c>
       <c r="E10" t="s">
-        <v>475</v>
+        <v>357</v>
       </c>
       <c r="F10" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="G10" t="s">
         <v>17</v>
       </c>
       <c r="H10" t="s">
-        <v>529</v>
+        <v>393</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>549</v>
-      </c>
-      <c r="B11" t="s">
-        <v>550</v>
-      </c>
-      <c r="C11" t="s">
-        <v>551</v>
+        <v>407</v>
       </c>
       <c r="D11" t="s">
-        <v>552</v>
+        <v>408</v>
       </c>
       <c r="E11" t="s">
-        <v>553</v>
+        <v>409</v>
       </c>
       <c r="F11" t="s">
-        <v>554</v>
+        <v>410</v>
       </c>
       <c r="G11" t="s">
         <v>14</v>
       </c>
       <c r="H11" t="s">
-        <v>555</v>
+        <v>411</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12" t="s">
         <v>66</v>
-      </c>
-      <c r="B12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12" t="s">
-        <v>70</v>
-      </c>
-      <c r="F12" t="s">
-        <v>71</v>
-      </c>
-      <c r="G12" t="s">
-        <v>61</v>
-      </c>
-      <c r="H12" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>624</v>
-      </c>
-      <c r="B13" t="s">
-        <v>625</v>
-      </c>
-      <c r="C13" t="s">
-        <v>626</v>
+        <v>458</v>
       </c>
       <c r="D13" t="s">
-        <v>627</v>
+        <v>459</v>
       </c>
       <c r="E13" t="s">
-        <v>628</v>
+        <v>460</v>
       </c>
       <c r="F13" t="s">
-        <v>629</v>
+        <v>461</v>
       </c>
       <c r="G13" t="s">
-        <v>628</v>
+        <v>460</v>
       </c>
       <c r="H13" t="s">
-        <v>630</v>
+        <v>462</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>724</v>
-      </c>
-      <c r="B14" t="s">
-        <v>725</v>
-      </c>
-      <c r="C14" t="s">
-        <v>726</v>
+        <v>526</v>
       </c>
       <c r="D14" t="s">
-        <v>727</v>
+        <v>527</v>
       </c>
       <c r="E14" t="s">
-        <v>728</v>
+        <v>528</v>
       </c>
       <c r="F14" t="s">
-        <v>729</v>
+        <v>529</v>
       </c>
       <c r="G14" t="s">
         <v>29</v>
       </c>
       <c r="H14" t="s">
-        <v>730</v>
+        <v>530</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>372</v>
-      </c>
-      <c r="B15" t="s">
-        <v>373</v>
-      </c>
-      <c r="C15" t="s">
-        <v>374</v>
+        <v>286</v>
       </c>
       <c r="D15" t="s">
-        <v>375</v>
+        <v>287</v>
       </c>
       <c r="E15" t="s">
-        <v>376</v>
+        <v>288</v>
       </c>
       <c r="F15" t="s">
-        <v>377</v>
+        <v>289</v>
       </c>
       <c r="G15" t="s">
         <v>33</v>
       </c>
       <c r="H15" t="s">
-        <v>378</v>
+        <v>290</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>463</v>
-      </c>
-      <c r="B16" t="s">
-        <v>464</v>
-      </c>
-      <c r="C16" t="s">
-        <v>465</v>
+        <v>349</v>
       </c>
       <c r="D16" t="s">
-        <v>466</v>
+        <v>350</v>
       </c>
       <c r="E16" t="s">
-        <v>467</v>
+        <v>351</v>
       </c>
       <c r="F16" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="G16" t="s">
         <v>27</v>
       </c>
       <c r="H16" t="s">
-        <v>468</v>
+        <v>352</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>611</v>
-      </c>
-      <c r="B17" t="s">
-        <v>612</v>
-      </c>
-      <c r="C17" t="s">
-        <v>613</v>
+        <v>449</v>
       </c>
       <c r="D17" t="s">
-        <v>614</v>
+        <v>450</v>
       </c>
       <c r="E17" t="s">
-        <v>615</v>
+        <v>451</v>
       </c>
       <c r="F17" t="s">
         <v>31</v>
@@ -3039,284 +2343,218 @@
         <v>17</v>
       </c>
       <c r="H17" t="s">
-        <v>616</v>
+        <v>452</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>364</v>
-      </c>
-      <c r="B18" t="s">
-        <v>365</v>
-      </c>
-      <c r="C18" t="s">
-        <v>366</v>
+        <v>280</v>
       </c>
       <c r="D18" t="s">
-        <v>367</v>
+        <v>281</v>
       </c>
       <c r="E18" t="s">
-        <v>368</v>
+        <v>282</v>
       </c>
       <c r="F18" t="s">
-        <v>368</v>
+        <v>282</v>
       </c>
       <c r="G18" t="s">
-        <v>202</v>
+        <v>164</v>
       </c>
       <c r="H18" t="s">
-        <v>369</v>
+        <v>283</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>209</v>
-      </c>
-      <c r="B19" t="s">
-        <v>210</v>
-      </c>
-      <c r="C19" t="s">
-        <v>211</v>
+        <v>169</v>
       </c>
       <c r="D19" t="s">
-        <v>212</v>
+        <v>170</v>
       </c>
       <c r="E19" t="s">
-        <v>213</v>
+        <v>171</v>
       </c>
       <c r="F19" t="s">
-        <v>214</v>
+        <v>172</v>
       </c>
       <c r="G19" t="s">
         <v>9</v>
       </c>
       <c r="H19" t="s">
-        <v>215</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>586</v>
-      </c>
-      <c r="B20" t="s">
-        <v>587</v>
-      </c>
-      <c r="C20" t="s">
-        <v>588</v>
+        <v>432</v>
       </c>
       <c r="D20" t="s">
-        <v>589</v>
+        <v>433</v>
       </c>
       <c r="E20" t="s">
-        <v>590</v>
+        <v>434</v>
       </c>
       <c r="F20" t="s">
-        <v>591</v>
+        <v>435</v>
       </c>
       <c r="G20" t="s">
         <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>592</v>
+        <v>436</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>123</v>
-      </c>
-      <c r="B21" t="s">
-        <v>124</v>
-      </c>
-      <c r="C21" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="D21" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="E21" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="F21" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="G21" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="H21" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>330</v>
-      </c>
-      <c r="B22" t="s">
-        <v>331</v>
-      </c>
-      <c r="C22" t="s">
-        <v>332</v>
+        <v>256</v>
       </c>
       <c r="D22" t="s">
-        <v>333</v>
+        <v>257</v>
       </c>
       <c r="E22" t="s">
-        <v>334</v>
+        <v>258</v>
       </c>
       <c r="F22" t="s">
-        <v>334</v>
+        <v>258</v>
       </c>
       <c r="G22" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H22" t="s">
-        <v>335</v>
+        <v>259</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>272</v>
-      </c>
-      <c r="B23" t="s">
-        <v>273</v>
-      </c>
-      <c r="C23" t="s">
-        <v>274</v>
+        <v>214</v>
       </c>
       <c r="D23" t="s">
-        <v>275</v>
+        <v>215</v>
       </c>
       <c r="E23" t="s">
-        <v>276</v>
+        <v>216</v>
       </c>
       <c r="F23" t="s">
-        <v>199</v>
+        <v>161</v>
       </c>
       <c r="G23" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H23" t="s">
-        <v>277</v>
+        <v>217</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>247</v>
-      </c>
-      <c r="B24" t="s">
-        <v>248</v>
-      </c>
-      <c r="C24" t="s">
-        <v>249</v>
+        <v>197</v>
       </c>
       <c r="D24" t="s">
-        <v>250</v>
+        <v>198</v>
       </c>
       <c r="E24" t="s">
-        <v>251</v>
+        <v>199</v>
       </c>
       <c r="F24" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="G24" t="s">
         <v>13</v>
       </c>
       <c r="H24" t="s">
-        <v>252</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>317</v>
-      </c>
-      <c r="B25" t="s">
-        <v>318</v>
-      </c>
-      <c r="C25" t="s">
-        <v>319</v>
+        <v>247</v>
       </c>
       <c r="D25" t="s">
-        <v>320</v>
+        <v>248</v>
       </c>
       <c r="E25" t="s">
-        <v>321</v>
+        <v>249</v>
       </c>
       <c r="F25" t="s">
-        <v>322</v>
+        <v>250</v>
       </c>
       <c r="G25" t="s">
         <v>29</v>
       </c>
       <c r="H25" t="s">
-        <v>323</v>
+        <v>251</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>230</v>
-      </c>
-      <c r="B26" t="s">
-        <v>231</v>
-      </c>
-      <c r="C26" t="s">
-        <v>232</v>
+        <v>186</v>
       </c>
       <c r="D26" t="s">
-        <v>233</v>
+        <v>187</v>
       </c>
       <c r="E26" t="s">
-        <v>234</v>
+        <v>188</v>
       </c>
       <c r="F26" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H26" t="s">
-        <v>235</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>682</v>
-      </c>
-      <c r="B27" t="s">
-        <v>683</v>
-      </c>
-      <c r="C27" t="s">
-        <v>684</v>
+        <v>498</v>
       </c>
       <c r="D27" t="s">
-        <v>685</v>
+        <v>499</v>
       </c>
       <c r="E27" t="s">
-        <v>655</v>
+        <v>479</v>
       </c>
       <c r="F27" t="s">
-        <v>655</v>
+        <v>479</v>
       </c>
       <c r="G27" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H27" t="s">
-        <v>686</v>
+        <v>500</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>148</v>
-      </c>
-      <c r="B28" t="s">
-        <v>149</v>
-      </c>
-      <c r="C28" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="D28" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="E28" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="F28" t="s">
         <v>30</v>
@@ -3325,154 +2563,118 @@
         <v>17</v>
       </c>
       <c r="H28" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>404</v>
-      </c>
-      <c r="B29" t="s">
-        <v>405</v>
-      </c>
-      <c r="C29" t="s">
-        <v>406</v>
+        <v>308</v>
       </c>
       <c r="D29" t="s">
-        <v>407</v>
+        <v>309</v>
       </c>
       <c r="E29" t="s">
-        <v>408</v>
+        <v>310</v>
       </c>
       <c r="F29" t="s">
-        <v>409</v>
+        <v>311</v>
       </c>
       <c r="G29" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H29" t="s">
-        <v>410</v>
+        <v>312</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>512</v>
-      </c>
-      <c r="B30" t="s">
-        <v>513</v>
-      </c>
-      <c r="C30" t="s">
-        <v>514</v>
+        <v>382</v>
       </c>
       <c r="D30" t="s">
-        <v>515</v>
+        <v>383</v>
       </c>
       <c r="E30" t="s">
-        <v>516</v>
+        <v>384</v>
       </c>
       <c r="F30" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G30" t="s">
         <v>36</v>
       </c>
       <c r="H30" t="s">
-        <v>517</v>
+        <v>385</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>718</v>
-      </c>
-      <c r="B31" t="s">
-        <v>719</v>
-      </c>
-      <c r="C31" t="s">
-        <v>720</v>
+        <v>522</v>
       </c>
       <c r="D31" t="s">
-        <v>721</v>
+        <v>523</v>
       </c>
       <c r="E31" t="s">
-        <v>722</v>
+        <v>524</v>
       </c>
       <c r="F31" t="s">
-        <v>396</v>
+        <v>302</v>
       </c>
       <c r="G31" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>723</v>
+        <v>525</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>579</v>
-      </c>
-      <c r="B32" t="s">
-        <v>580</v>
-      </c>
-      <c r="C32" t="s">
-        <v>581</v>
+        <v>427</v>
       </c>
       <c r="D32" t="s">
-        <v>582</v>
+        <v>428</v>
       </c>
       <c r="E32" t="s">
-        <v>583</v>
+        <v>429</v>
       </c>
       <c r="F32" t="s">
-        <v>584</v>
+        <v>430</v>
       </c>
       <c r="G32" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="H32" t="s">
-        <v>585</v>
+        <v>431</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>391</v>
-      </c>
-      <c r="B33" t="s">
-        <v>392</v>
-      </c>
-      <c r="C33" t="s">
-        <v>393</v>
+        <v>299</v>
       </c>
       <c r="D33" t="s">
-        <v>394</v>
+        <v>300</v>
       </c>
       <c r="E33" t="s">
-        <v>370</v>
+        <v>284</v>
       </c>
       <c r="F33" t="s">
-        <v>371</v>
+        <v>285</v>
       </c>
       <c r="G33" t="s">
-        <v>224</v>
+        <v>180</v>
       </c>
       <c r="H33" t="s">
-        <v>395</v>
+        <v>301</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>289</v>
-      </c>
-      <c r="B34" t="s">
-        <v>290</v>
-      </c>
-      <c r="C34" t="s">
-        <v>291</v>
+        <v>227</v>
       </c>
       <c r="D34" t="s">
-        <v>292</v>
+        <v>228</v>
       </c>
       <c r="E34" t="s">
-        <v>293</v>
+        <v>229</v>
       </c>
       <c r="F34" t="s">
         <v>32</v>
@@ -3481,180 +2683,138 @@
         <v>17</v>
       </c>
       <c r="H34" t="s">
-        <v>294</v>
+        <v>230</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>419</v>
-      </c>
-      <c r="B35" t="s">
-        <v>420</v>
-      </c>
-      <c r="C35" t="s">
-        <v>421</v>
+        <v>319</v>
       </c>
       <c r="D35" t="s">
-        <v>422</v>
+        <v>320</v>
       </c>
       <c r="E35" t="s">
-        <v>423</v>
+        <v>321</v>
       </c>
       <c r="F35" t="s">
-        <v>285</v>
+        <v>223</v>
       </c>
       <c r="G35" t="s">
         <v>17</v>
       </c>
       <c r="H35" t="s">
-        <v>424</v>
+        <v>322</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>162</v>
-      </c>
-      <c r="B36" t="s">
-        <v>163</v>
-      </c>
-      <c r="C36" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="D36" t="s">
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="E36" t="s">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="F36" t="s">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="G36" t="s">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="H36" t="s">
-        <v>168</v>
+        <v>138</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>518</v>
-      </c>
-      <c r="B37" t="s">
-        <v>519</v>
-      </c>
-      <c r="C37" t="s">
-        <v>520</v>
+        <v>386</v>
       </c>
       <c r="D37" t="s">
-        <v>521</v>
+        <v>387</v>
       </c>
       <c r="E37" t="s">
-        <v>522</v>
+        <v>388</v>
       </c>
       <c r="F37" t="s">
-        <v>523</v>
+        <v>389</v>
       </c>
       <c r="G37" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H37" t="s">
-        <v>524</v>
+        <v>390</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>386</v>
-      </c>
-      <c r="B38" t="s">
-        <v>387</v>
-      </c>
-      <c r="C38" t="s">
-        <v>388</v>
+        <v>296</v>
       </c>
       <c r="D38" t="s">
-        <v>389</v>
+        <v>297</v>
       </c>
       <c r="E38" t="s">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="F38" t="s">
-        <v>351</v>
+        <v>271</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
       </c>
       <c r="H38" t="s">
-        <v>390</v>
+        <v>298</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>353</v>
-      </c>
-      <c r="B39" t="s">
-        <v>354</v>
-      </c>
-      <c r="C39" t="s">
-        <v>355</v>
+        <v>273</v>
       </c>
       <c r="D39" t="s">
-        <v>356</v>
+        <v>274</v>
       </c>
       <c r="E39" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F39" t="s">
-        <v>201</v>
+        <v>163</v>
       </c>
       <c r="G39" t="s">
         <v>17</v>
       </c>
       <c r="H39" t="s">
-        <v>357</v>
+        <v>275</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>469</v>
-      </c>
-      <c r="B40" t="s">
-        <v>470</v>
-      </c>
-      <c r="C40" t="s">
-        <v>471</v>
+        <v>353</v>
       </c>
       <c r="D40" t="s">
-        <v>472</v>
+        <v>354</v>
       </c>
       <c r="E40" t="s">
-        <v>473</v>
+        <v>355</v>
       </c>
       <c r="F40" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G40" t="s">
         <v>17</v>
       </c>
       <c r="H40" t="s">
-        <v>474</v>
+        <v>356</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>242</v>
-      </c>
-      <c r="B41" t="s">
-        <v>243</v>
-      </c>
-      <c r="C41" t="s">
-        <v>244</v>
+        <v>194</v>
       </c>
       <c r="D41" t="s">
-        <v>245</v>
+        <v>195</v>
       </c>
       <c r="E41" t="s">
-        <v>228</v>
+        <v>184</v>
       </c>
       <c r="F41" t="s">
         <v>18</v>
@@ -3663,76 +2823,58 @@
         <v>17</v>
       </c>
       <c r="H41" t="s">
-        <v>246</v>
+        <v>196</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>397</v>
-      </c>
-      <c r="B42" t="s">
-        <v>398</v>
-      </c>
-      <c r="C42" t="s">
-        <v>399</v>
+        <v>303</v>
       </c>
       <c r="D42" t="s">
-        <v>400</v>
+        <v>304</v>
       </c>
       <c r="E42" t="s">
-        <v>401</v>
+        <v>305</v>
       </c>
       <c r="F42" t="s">
-        <v>402</v>
+        <v>306</v>
       </c>
       <c r="G42" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H42" t="s">
-        <v>403</v>
+        <v>307</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>141</v>
-      </c>
-      <c r="B43" t="s">
-        <v>142</v>
-      </c>
-      <c r="C43" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="D43" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="E43" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="F43" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="G43" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H43" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>73</v>
-      </c>
-      <c r="B44" t="s">
-        <v>74</v>
-      </c>
-      <c r="C44" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D44" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="E44" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F44" t="s">
         <v>25</v>
@@ -3741,180 +2883,138 @@
         <v>17</v>
       </c>
       <c r="H44" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>700</v>
-      </c>
-      <c r="B45" t="s">
-        <v>701</v>
-      </c>
-      <c r="C45" t="s">
-        <v>702</v>
+        <v>510</v>
       </c>
       <c r="D45" t="s">
-        <v>703</v>
+        <v>511</v>
       </c>
       <c r="E45" t="s">
-        <v>704</v>
+        <v>512</v>
       </c>
       <c r="F45" t="s">
-        <v>705</v>
+        <v>513</v>
       </c>
       <c r="G45" t="s">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="H45" t="s">
-        <v>706</v>
+        <v>514</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>536</v>
-      </c>
-      <c r="B46" t="s">
-        <v>537</v>
-      </c>
-      <c r="C46" t="s">
-        <v>538</v>
+        <v>398</v>
       </c>
       <c r="D46" t="s">
-        <v>539</v>
+        <v>399</v>
       </c>
       <c r="E46" t="s">
-        <v>540</v>
+        <v>400</v>
       </c>
       <c r="F46" t="s">
-        <v>541</v>
+        <v>401</v>
       </c>
       <c r="G46" t="s">
         <v>34</v>
       </c>
       <c r="H46" t="s">
-        <v>542</v>
+        <v>402</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>606</v>
-      </c>
-      <c r="B47" t="s">
-        <v>607</v>
-      </c>
-      <c r="C47" t="s">
-        <v>608</v>
+        <v>446</v>
       </c>
       <c r="D47" t="s">
-        <v>609</v>
+        <v>447</v>
       </c>
       <c r="E47" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="F47" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G47" t="s">
         <v>17</v>
       </c>
       <c r="H47" t="s">
-        <v>610</v>
+        <v>448</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>38</v>
       </c>
-      <c r="B48" t="s">
+      <c r="D48" t="s">
         <v>39</v>
       </c>
-      <c r="C48" t="s">
+      <c r="E48" t="s">
         <v>40</v>
       </c>
-      <c r="D48" t="s">
+      <c r="F48" t="s">
         <v>41</v>
-      </c>
-      <c r="E48" t="s">
-        <v>42</v>
-      </c>
-      <c r="F48" t="s">
-        <v>43</v>
       </c>
       <c r="G48" t="s">
         <v>15</v>
       </c>
       <c r="H48" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>438</v>
-      </c>
-      <c r="B49" t="s">
-        <v>439</v>
-      </c>
-      <c r="C49" t="s">
-        <v>440</v>
+        <v>332</v>
       </c>
       <c r="D49" t="s">
-        <v>441</v>
+        <v>333</v>
       </c>
       <c r="E49" t="s">
-        <v>442</v>
+        <v>334</v>
       </c>
       <c r="F49" t="s">
-        <v>443</v>
+        <v>335</v>
       </c>
       <c r="G49" t="s">
         <v>13</v>
       </c>
       <c r="H49" t="s">
-        <v>444</v>
+        <v>336</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>445</v>
-      </c>
-      <c r="B50" t="s">
-        <v>446</v>
-      </c>
-      <c r="C50" t="s">
-        <v>447</v>
+        <v>337</v>
       </c>
       <c r="D50" t="s">
-        <v>448</v>
+        <v>338</v>
       </c>
       <c r="E50" t="s">
-        <v>449</v>
+        <v>339</v>
       </c>
       <c r="F50" t="s">
-        <v>449</v>
+        <v>339</v>
       </c>
       <c r="G50" t="s">
-        <v>223</v>
+        <v>179</v>
       </c>
       <c r="H50" t="s">
-        <v>450</v>
+        <v>340</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>600</v>
-      </c>
-      <c r="B51" t="s">
-        <v>601</v>
-      </c>
-      <c r="C51" t="s">
-        <v>602</v>
+        <v>442</v>
       </c>
       <c r="D51" t="s">
-        <v>603</v>
+        <v>443</v>
       </c>
       <c r="E51" t="s">
-        <v>604</v>
+        <v>444</v>
       </c>
       <c r="F51" t="s">
         <v>31</v>
@@ -3923,128 +3023,98 @@
         <v>17</v>
       </c>
       <c r="H51" t="s">
-        <v>605</v>
+        <v>445</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>236</v>
-      </c>
-      <c r="B52" t="s">
-        <v>237</v>
-      </c>
-      <c r="C52" t="s">
-        <v>238</v>
+        <v>190</v>
       </c>
       <c r="D52" t="s">
-        <v>239</v>
+        <v>191</v>
       </c>
       <c r="E52" t="s">
-        <v>240</v>
+        <v>192</v>
       </c>
       <c r="F52" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G52" t="s">
         <v>17</v>
       </c>
       <c r="H52" t="s">
-        <v>241</v>
+        <v>193</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>573</v>
-      </c>
-      <c r="B53" t="s">
-        <v>574</v>
-      </c>
-      <c r="C53" t="s">
-        <v>575</v>
+        <v>423</v>
       </c>
       <c r="D53" t="s">
-        <v>576</v>
+        <v>424</v>
       </c>
       <c r="E53" t="s">
-        <v>577</v>
+        <v>425</v>
       </c>
       <c r="F53" t="s">
-        <v>363</v>
+        <v>279</v>
       </c>
       <c r="G53" t="s">
         <v>15</v>
       </c>
       <c r="H53" t="s">
-        <v>578</v>
+        <v>426</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>708</v>
-      </c>
-      <c r="B54" t="s">
-        <v>709</v>
-      </c>
-      <c r="C54" t="s">
-        <v>710</v>
+        <v>516</v>
       </c>
       <c r="D54" t="s">
-        <v>711</v>
+        <v>517</v>
       </c>
       <c r="E54" t="s">
-        <v>707</v>
+        <v>515</v>
       </c>
       <c r="F54" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G54" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>712</v>
+        <v>518</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>663</v>
-      </c>
-      <c r="B55" t="s">
-        <v>664</v>
-      </c>
-      <c r="C55" t="s">
-        <v>665</v>
+        <v>485</v>
       </c>
       <c r="D55" t="s">
-        <v>666</v>
+        <v>486</v>
       </c>
       <c r="E55" t="s">
-        <v>667</v>
+        <v>487</v>
       </c>
       <c r="F55" t="s">
-        <v>668</v>
+        <v>488</v>
       </c>
       <c r="G55" t="s">
-        <v>287</v>
+        <v>225</v>
       </c>
       <c r="H55" t="s">
-        <v>669</v>
+        <v>489</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>649</v>
-      </c>
-      <c r="B56" t="s">
-        <v>650</v>
-      </c>
-      <c r="C56" t="s">
-        <v>651</v>
+        <v>475</v>
       </c>
       <c r="D56" t="s">
-        <v>652</v>
+        <v>476</v>
       </c>
       <c r="E56" t="s">
-        <v>653</v>
+        <v>477</v>
       </c>
       <c r="F56" t="s">
         <v>24</v>
@@ -4053,76 +3123,58 @@
         <v>21</v>
       </c>
       <c r="H56" t="s">
-        <v>654</v>
+        <v>478</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>713</v>
-      </c>
-      <c r="B57" t="s">
-        <v>714</v>
-      </c>
-      <c r="C57" t="s">
-        <v>715</v>
+        <v>519</v>
       </c>
       <c r="D57" t="s">
-        <v>716</v>
+        <v>520</v>
       </c>
       <c r="E57" t="s">
-        <v>599</v>
+        <v>441</v>
       </c>
       <c r="F57" t="s">
-        <v>225</v>
+        <v>181</v>
       </c>
       <c r="G57" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>717</v>
+        <v>521</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>451</v>
-      </c>
-      <c r="B58" t="s">
-        <v>452</v>
-      </c>
-      <c r="C58" t="s">
-        <v>453</v>
+        <v>341</v>
       </c>
       <c r="D58" t="s">
-        <v>454</v>
+        <v>342</v>
       </c>
       <c r="E58" t="s">
-        <v>455</v>
+        <v>343</v>
       </c>
       <c r="F58" t="s">
-        <v>208</v>
+        <v>168</v>
       </c>
       <c r="G58" t="s">
         <v>36</v>
       </c>
       <c r="H58" t="s">
-        <v>456</v>
+        <v>344</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>358</v>
-      </c>
-      <c r="B59" t="s">
-        <v>359</v>
-      </c>
-      <c r="C59" t="s">
-        <v>360</v>
+        <v>276</v>
       </c>
       <c r="D59" t="s">
-        <v>361</v>
+        <v>277</v>
       </c>
       <c r="E59" t="s">
-        <v>352</v>
+        <v>272</v>
       </c>
       <c r="F59" t="s">
         <v>18</v>
@@ -4131,232 +3183,178 @@
         <v>17</v>
       </c>
       <c r="H59" t="s">
-        <v>362</v>
+        <v>278</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>266</v>
-      </c>
-      <c r="B60" t="s">
-        <v>267</v>
-      </c>
-      <c r="C60" t="s">
-        <v>268</v>
+        <v>210</v>
       </c>
       <c r="D60" t="s">
-        <v>269</v>
+        <v>211</v>
       </c>
       <c r="E60" t="s">
-        <v>270</v>
+        <v>212</v>
       </c>
       <c r="F60" t="s">
         <v>8</v>
       </c>
       <c r="G60" t="s">
-        <v>185</v>
+        <v>151</v>
       </c>
       <c r="H60" t="s">
-        <v>271</v>
+        <v>213</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>379</v>
-      </c>
-      <c r="B61" t="s">
-        <v>380</v>
-      </c>
-      <c r="C61" t="s">
-        <v>381</v>
+        <v>291</v>
       </c>
       <c r="D61" t="s">
-        <v>382</v>
+        <v>292</v>
       </c>
       <c r="E61" t="s">
-        <v>383</v>
+        <v>293</v>
       </c>
       <c r="F61" t="s">
-        <v>384</v>
+        <v>294</v>
       </c>
       <c r="G61" t="s">
         <v>23</v>
       </c>
       <c r="H61" t="s">
-        <v>385</v>
+        <v>295</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>336</v>
-      </c>
-      <c r="B62" t="s">
-        <v>337</v>
-      </c>
-      <c r="C62" t="s">
-        <v>338</v>
+        <v>260</v>
       </c>
       <c r="D62" t="s">
-        <v>339</v>
+        <v>261</v>
       </c>
       <c r="E62" t="s">
-        <v>340</v>
+        <v>262</v>
       </c>
       <c r="F62" t="s">
-        <v>341</v>
+        <v>263</v>
       </c>
       <c r="G62" t="s">
-        <v>286</v>
+        <v>224</v>
       </c>
       <c r="H62" t="s">
-        <v>342</v>
+        <v>264</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>170</v>
-      </c>
-      <c r="B63" t="s">
-        <v>171</v>
-      </c>
-      <c r="C63" t="s">
-        <v>172</v>
+        <v>140</v>
       </c>
       <c r="D63" t="s">
-        <v>173</v>
+        <v>141</v>
       </c>
       <c r="E63" t="s">
-        <v>174</v>
+        <v>142</v>
       </c>
       <c r="F63" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="G63" t="s">
         <v>22</v>
       </c>
       <c r="H63" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>411</v>
-      </c>
-      <c r="B64" t="s">
-        <v>412</v>
-      </c>
-      <c r="C64" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="D64" t="s">
-        <v>414</v>
+        <v>314</v>
       </c>
       <c r="E64" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="F64" t="s">
-        <v>416</v>
+        <v>316</v>
       </c>
       <c r="G64" t="s">
-        <v>417</v>
+        <v>317</v>
       </c>
       <c r="H64" t="s">
-        <v>418</v>
+        <v>318</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>530</v>
-      </c>
-      <c r="B65" t="s">
-        <v>531</v>
-      </c>
-      <c r="C65" t="s">
-        <v>532</v>
+        <v>394</v>
       </c>
       <c r="D65" t="s">
-        <v>533</v>
+        <v>395</v>
       </c>
       <c r="E65" t="s">
-        <v>534</v>
+        <v>396</v>
       </c>
       <c r="F65" t="s">
-        <v>184</v>
+        <v>150</v>
       </c>
       <c r="G65" t="s">
         <v>36</v>
       </c>
       <c r="H65" t="s">
-        <v>535</v>
+        <v>397</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>488</v>
-      </c>
-      <c r="B66" t="s">
-        <v>489</v>
-      </c>
-      <c r="C66" t="s">
-        <v>490</v>
+        <v>366</v>
       </c>
       <c r="D66" t="s">
-        <v>491</v>
+        <v>367</v>
       </c>
       <c r="E66" t="s">
-        <v>492</v>
+        <v>368</v>
       </c>
       <c r="F66" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G66" t="s">
         <v>36</v>
       </c>
       <c r="H66" t="s">
-        <v>493</v>
+        <v>369</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>687</v>
-      </c>
-      <c r="B67" t="s">
-        <v>688</v>
-      </c>
-      <c r="C67" t="s">
-        <v>689</v>
+        <v>501</v>
       </c>
       <c r="D67" t="s">
-        <v>690</v>
+        <v>502</v>
       </c>
       <c r="E67" t="s">
-        <v>691</v>
+        <v>503</v>
       </c>
       <c r="F67" t="s">
-        <v>656</v>
+        <v>480</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H67" t="s">
-        <v>692</v>
+        <v>504</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>556</v>
-      </c>
-      <c r="B68" t="s">
-        <v>557</v>
-      </c>
-      <c r="C68" t="s">
-        <v>558</v>
+        <v>412</v>
       </c>
       <c r="D68" t="s">
-        <v>559</v>
+        <v>413</v>
       </c>
       <c r="E68" t="s">
-        <v>560</v>
+        <v>414</v>
       </c>
       <c r="F68" t="s">
         <v>16</v>
@@ -4365,76 +3363,58 @@
         <v>17</v>
       </c>
       <c r="H68" t="s">
-        <v>561</v>
+        <v>415</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>637</v>
-      </c>
-      <c r="B69" t="s">
-        <v>638</v>
-      </c>
-      <c r="C69" t="s">
-        <v>639</v>
+        <v>467</v>
       </c>
       <c r="D69" t="s">
-        <v>640</v>
+        <v>468</v>
       </c>
       <c r="E69" t="s">
-        <v>641</v>
+        <v>469</v>
       </c>
       <c r="F69" t="s">
-        <v>295</v>
+        <v>231</v>
       </c>
       <c r="G69" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H69" t="s">
-        <v>642</v>
+        <v>470</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>562</v>
-      </c>
-      <c r="B70" t="s">
-        <v>563</v>
-      </c>
-      <c r="C70" t="s">
-        <v>564</v>
+        <v>416</v>
       </c>
       <c r="D70" t="s">
-        <v>565</v>
+        <v>417</v>
       </c>
       <c r="E70" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F70" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G70" t="s">
         <v>17</v>
       </c>
       <c r="H70" t="s">
-        <v>566</v>
+        <v>418</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>567</v>
-      </c>
-      <c r="B71" t="s">
-        <v>568</v>
-      </c>
-      <c r="C71" t="s">
-        <v>569</v>
+        <v>419</v>
       </c>
       <c r="D71" t="s">
-        <v>570</v>
+        <v>420</v>
       </c>
       <c r="E71" t="s">
-        <v>571</v>
+        <v>421</v>
       </c>
       <c r="F71" t="s">
         <v>16</v>
@@ -4443,24 +3423,18 @@
         <v>17</v>
       </c>
       <c r="H71" t="s">
-        <v>572</v>
+        <v>422</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>279</v>
-      </c>
-      <c r="B72" t="s">
-        <v>280</v>
-      </c>
-      <c r="C72" t="s">
-        <v>281</v>
+        <v>219</v>
       </c>
       <c r="D72" t="s">
-        <v>282</v>
+        <v>220</v>
       </c>
       <c r="E72" t="s">
-        <v>283</v>
+        <v>221</v>
       </c>
       <c r="F72" t="s">
         <v>26</v>
@@ -4469,232 +3443,178 @@
         <v>27</v>
       </c>
       <c r="H72" t="s">
-        <v>284</v>
+        <v>222</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>89</v>
-      </c>
-      <c r="B73" t="s">
-        <v>90</v>
-      </c>
-      <c r="C73" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="D73" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="E73" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F73" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="G73" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="H73" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>177</v>
-      </c>
-      <c r="B74" t="s">
-        <v>178</v>
-      </c>
-      <c r="C74" t="s">
-        <v>179</v>
+        <v>145</v>
       </c>
       <c r="D74" t="s">
-        <v>180</v>
+        <v>146</v>
       </c>
       <c r="E74" t="s">
-        <v>181</v>
+        <v>147</v>
       </c>
       <c r="F74" t="s">
-        <v>182</v>
+        <v>148</v>
       </c>
       <c r="G74" t="s">
         <v>14</v>
       </c>
       <c r="H74" t="s">
-        <v>183</v>
+        <v>149</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>670</v>
-      </c>
-      <c r="B75" t="s">
-        <v>671</v>
-      </c>
-      <c r="C75" t="s">
-        <v>672</v>
+        <v>490</v>
       </c>
       <c r="D75" t="s">
-        <v>673</v>
+        <v>491</v>
       </c>
       <c r="E75" t="s">
-        <v>674</v>
+        <v>492</v>
       </c>
       <c r="F75" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G75" t="s">
         <v>17</v>
       </c>
       <c r="H75" t="s">
-        <v>675</v>
+        <v>493</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>431</v>
-      </c>
-      <c r="B76" t="s">
-        <v>432</v>
-      </c>
-      <c r="C76" t="s">
-        <v>433</v>
+        <v>327</v>
       </c>
       <c r="D76" t="s">
-        <v>434</v>
+        <v>328</v>
       </c>
       <c r="E76" t="s">
-        <v>435</v>
+        <v>329</v>
       </c>
       <c r="F76" t="s">
-        <v>436</v>
+        <v>330</v>
       </c>
       <c r="G76" t="s">
-        <v>278</v>
+        <v>218</v>
       </c>
       <c r="H76" t="s">
-        <v>437</v>
+        <v>331</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>506</v>
-      </c>
-      <c r="B77" t="s">
-        <v>507</v>
-      </c>
-      <c r="C77" t="s">
-        <v>508</v>
+        <v>378</v>
       </c>
       <c r="D77" t="s">
-        <v>509</v>
+        <v>379</v>
       </c>
       <c r="E77" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F77" t="s">
-        <v>510</v>
+        <v>380</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H77" t="s">
-        <v>511</v>
+        <v>381</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>617</v>
-      </c>
-      <c r="B78" t="s">
-        <v>618</v>
-      </c>
-      <c r="C78" t="s">
-        <v>619</v>
+        <v>453</v>
       </c>
       <c r="D78" t="s">
-        <v>620</v>
+        <v>454</v>
       </c>
       <c r="E78" t="s">
-        <v>621</v>
+        <v>455</v>
       </c>
       <c r="F78" t="s">
-        <v>622</v>
+        <v>456</v>
       </c>
       <c r="G78" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="H78" t="s">
-        <v>623</v>
+        <v>457</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>643</v>
-      </c>
-      <c r="B79" t="s">
-        <v>644</v>
-      </c>
-      <c r="C79" t="s">
-        <v>645</v>
+        <v>471</v>
       </c>
       <c r="D79" t="s">
-        <v>646</v>
+        <v>472</v>
       </c>
       <c r="E79" t="s">
-        <v>647</v>
+        <v>473</v>
       </c>
       <c r="F79" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="G79" t="s">
         <v>13</v>
       </c>
       <c r="H79" t="s">
-        <v>648</v>
+        <v>474</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>217</v>
-      </c>
-      <c r="B80" t="s">
-        <v>218</v>
-      </c>
-      <c r="C80" t="s">
-        <v>219</v>
+        <v>175</v>
       </c>
       <c r="D80" t="s">
-        <v>220</v>
+        <v>176</v>
       </c>
       <c r="E80" t="s">
-        <v>221</v>
+        <v>177</v>
       </c>
       <c r="F80" t="s">
-        <v>216</v>
+        <v>174</v>
       </c>
       <c r="G80" t="s">
         <v>28</v>
       </c>
       <c r="H80" t="s">
-        <v>222</v>
+        <v>178</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
+        <v>51</v>
+      </c>
+      <c r="D81" t="s">
+        <v>52</v>
+      </c>
+      <c r="E81" t="s">
         <v>53</v>
-      </c>
-      <c r="B81" t="s">
-        <v>54</v>
-      </c>
-      <c r="C81" t="s">
-        <v>55</v>
-      </c>
-      <c r="D81" t="s">
-        <v>56</v>
-      </c>
-      <c r="E81" t="s">
-        <v>57</v>
       </c>
       <c r="F81" t="s">
         <v>19</v>
@@ -4703,125 +3623,95 @@
         <v>17</v>
       </c>
       <c r="H81" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>105</v>
-      </c>
-      <c r="B82" t="s">
-        <v>106</v>
-      </c>
-      <c r="C82" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="D82" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="E82" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="F82" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="G82" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="H82" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>324</v>
-      </c>
-      <c r="B83" t="s">
-        <v>325</v>
-      </c>
-      <c r="C83" t="s">
-        <v>326</v>
+        <v>252</v>
       </c>
       <c r="D83" t="s">
-        <v>327</v>
+        <v>253</v>
       </c>
       <c r="E83" t="s">
-        <v>328</v>
+        <v>254</v>
       </c>
       <c r="F83" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="G83" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H83" t="s">
-        <v>329</v>
+        <v>255</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>631</v>
-      </c>
-      <c r="B84" t="s">
-        <v>632</v>
-      </c>
-      <c r="C84" t="s">
-        <v>633</v>
+        <v>463</v>
       </c>
       <c r="D84" t="s">
-        <v>634</v>
+        <v>464</v>
       </c>
       <c r="E84" t="s">
-        <v>635</v>
+        <v>465</v>
       </c>
       <c r="F84" t="s">
-        <v>186</v>
+        <v>152</v>
       </c>
       <c r="G84" t="s">
         <v>17</v>
       </c>
       <c r="H84" t="s">
-        <v>636</v>
+        <v>466</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>296</v>
-      </c>
-      <c r="B85" t="s">
-        <v>297</v>
-      </c>
-      <c r="C85" t="s">
-        <v>298</v>
+        <v>232</v>
       </c>
       <c r="D85" t="s">
-        <v>299</v>
+        <v>233</v>
       </c>
       <c r="E85" t="s">
-        <v>300</v>
+        <v>234</v>
       </c>
       <c r="F85" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G85" t="s">
         <v>17</v>
       </c>
       <c r="H85" t="s">
-        <v>301</v>
+        <v>235</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>79</v>
-      </c>
-      <c r="B86" t="s">
-        <v>80</v>
-      </c>
-      <c r="C86" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="D86" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="E86" t="s">
         <v>11</v>
@@ -4833,128 +3723,98 @@
         <v>12</v>
       </c>
       <c r="H86" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>187</v>
-      </c>
-      <c r="B87" t="s">
-        <v>188</v>
-      </c>
-      <c r="C87" t="s">
-        <v>189</v>
+        <v>153</v>
       </c>
       <c r="D87" t="s">
-        <v>190</v>
+        <v>154</v>
       </c>
       <c r="E87" t="s">
-        <v>191</v>
+        <v>155</v>
       </c>
       <c r="F87" t="s">
-        <v>192</v>
+        <v>156</v>
       </c>
       <c r="G87" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H87" t="s">
-        <v>193</v>
+        <v>157</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>260</v>
-      </c>
-      <c r="B88" t="s">
-        <v>261</v>
-      </c>
-      <c r="C88" t="s">
-        <v>262</v>
+        <v>206</v>
       </c>
       <c r="D88" t="s">
-        <v>263</v>
+        <v>207</v>
       </c>
       <c r="E88" t="s">
-        <v>264</v>
+        <v>208</v>
       </c>
       <c r="F88" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G88" t="s">
         <v>17</v>
       </c>
       <c r="H88" t="s">
-        <v>265</v>
+        <v>209</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>194</v>
-      </c>
-      <c r="B89" t="s">
-        <v>195</v>
-      </c>
-      <c r="C89" t="s">
-        <v>196</v>
+        <v>158</v>
       </c>
       <c r="D89" t="s">
-        <v>197</v>
+        <v>159</v>
       </c>
       <c r="E89" t="s">
-        <v>198</v>
+        <v>160</v>
       </c>
       <c r="F89" t="s">
-        <v>199</v>
+        <v>161</v>
       </c>
       <c r="G89" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H89" t="s">
-        <v>200</v>
+        <v>162</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>118</v>
-      </c>
-      <c r="B90" t="s">
-        <v>119</v>
-      </c>
-      <c r="C90" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="D90" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="E90" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="F90" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="G90" t="s">
         <v>27</v>
       </c>
       <c r="H90" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>303</v>
-      </c>
-      <c r="B91" t="s">
-        <v>304</v>
-      </c>
-      <c r="C91" t="s">
-        <v>305</v>
+        <v>237</v>
       </c>
       <c r="D91" t="s">
-        <v>306</v>
+        <v>238</v>
       </c>
       <c r="E91" t="s">
-        <v>307</v>
+        <v>239</v>
       </c>
       <c r="F91" t="s">
         <v>26</v>
@@ -4963,76 +3823,58 @@
         <v>27</v>
       </c>
       <c r="H91" t="s">
-        <v>308</v>
+        <v>240</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>476</v>
-      </c>
-      <c r="B92" t="s">
-        <v>477</v>
-      </c>
-      <c r="C92" t="s">
-        <v>478</v>
+        <v>358</v>
       </c>
       <c r="D92" t="s">
-        <v>479</v>
+        <v>359</v>
       </c>
       <c r="E92" t="s">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="F92" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G92" t="s">
         <v>21</v>
       </c>
       <c r="H92" t="s">
-        <v>481</v>
+        <v>361</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>593</v>
-      </c>
-      <c r="B93" t="s">
-        <v>594</v>
-      </c>
-      <c r="C93" t="s">
-        <v>595</v>
+        <v>437</v>
       </c>
       <c r="D93" t="s">
-        <v>596</v>
+        <v>438</v>
       </c>
       <c r="E93" t="s">
-        <v>597</v>
+        <v>439</v>
       </c>
       <c r="F93" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="G93" t="s">
         <v>17</v>
       </c>
       <c r="H93" t="s">
-        <v>598</v>
+        <v>440</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>494</v>
-      </c>
-      <c r="B94" t="s">
-        <v>495</v>
-      </c>
-      <c r="C94" t="s">
-        <v>496</v>
+        <v>370</v>
       </c>
       <c r="D94" t="s">
-        <v>497</v>
+        <v>371</v>
       </c>
       <c r="E94" t="s">
-        <v>498</v>
+        <v>372</v>
       </c>
       <c r="F94" t="s">
         <v>35</v>
@@ -5041,102 +3883,78 @@
         <v>17</v>
       </c>
       <c r="H94" t="s">
-        <v>499</v>
+        <v>373</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>203</v>
-      </c>
-      <c r="B95" t="s">
-        <v>204</v>
-      </c>
-      <c r="C95" t="s">
-        <v>205</v>
+        <v>165</v>
       </c>
       <c r="D95" t="s">
-        <v>206</v>
+        <v>166</v>
       </c>
       <c r="E95" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="F95" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="G95" t="s">
         <v>17</v>
       </c>
       <c r="H95" t="s">
-        <v>207</v>
+        <v>167</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>253</v>
-      </c>
-      <c r="B96" t="s">
-        <v>254</v>
-      </c>
-      <c r="C96" t="s">
-        <v>255</v>
+        <v>201</v>
       </c>
       <c r="D96" t="s">
-        <v>256</v>
+        <v>202</v>
       </c>
       <c r="E96" t="s">
-        <v>257</v>
+        <v>203</v>
       </c>
       <c r="F96" t="s">
-        <v>257</v>
+        <v>203</v>
       </c>
       <c r="G96" t="s">
-        <v>258</v>
+        <v>204</v>
       </c>
       <c r="H96" t="s">
-        <v>259</v>
+        <v>205</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>543</v>
-      </c>
-      <c r="B97" t="s">
-        <v>544</v>
-      </c>
-      <c r="C97" t="s">
-        <v>545</v>
+        <v>403</v>
       </c>
       <c r="D97" t="s">
-        <v>546</v>
+        <v>404</v>
       </c>
       <c r="E97" t="s">
-        <v>547</v>
+        <v>405</v>
       </c>
       <c r="F97" t="s">
-        <v>288</v>
+        <v>226</v>
       </c>
       <c r="G97" t="s">
         <v>17</v>
       </c>
       <c r="H97" t="s">
-        <v>548</v>
+        <v>406</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>135</v>
-      </c>
-      <c r="B98" t="s">
-        <v>136</v>
-      </c>
-      <c r="C98" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="D98" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="E98" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="F98" t="s">
         <v>20</v>
@@ -5145,85 +3963,67 @@
         <v>21</v>
       </c>
       <c r="H98" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>676</v>
-      </c>
-      <c r="B99" t="s">
-        <v>677</v>
-      </c>
-      <c r="C99" t="s">
-        <v>678</v>
+        <v>494</v>
       </c>
       <c r="D99" t="s">
-        <v>679</v>
+        <v>495</v>
       </c>
       <c r="E99" t="s">
-        <v>680</v>
+        <v>496</v>
       </c>
       <c r="F99" t="s">
-        <v>226</v>
+        <v>182</v>
       </c>
       <c r="G99" t="s">
-        <v>227</v>
+        <v>183</v>
       </c>
       <c r="H99" t="s">
-        <v>681</v>
+        <v>497</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>657</v>
-      </c>
-      <c r="B100" t="s">
-        <v>658</v>
-      </c>
-      <c r="C100" t="s">
-        <v>659</v>
+        <v>481</v>
       </c>
       <c r="D100" t="s">
-        <v>660</v>
+        <v>482</v>
       </c>
       <c r="E100" t="s">
-        <v>661</v>
+        <v>483</v>
       </c>
       <c r="F100" t="s">
-        <v>229</v>
+        <v>185</v>
       </c>
       <c r="G100" t="s">
         <v>36</v>
       </c>
       <c r="H100" t="s">
-        <v>662</v>
+        <v>484</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>309</v>
-      </c>
-      <c r="B101" t="s">
-        <v>310</v>
-      </c>
-      <c r="C101" t="s">
-        <v>311</v>
+        <v>241</v>
       </c>
       <c r="D101" t="s">
-        <v>312</v>
+        <v>242</v>
       </c>
       <c r="E101" t="s">
-        <v>313</v>
+        <v>243</v>
       </c>
       <c r="F101" t="s">
-        <v>314</v>
+        <v>244</v>
       </c>
       <c r="G101" t="s">
         <v>37</v>
       </c>
       <c r="H101" t="s">
-        <v>315</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
